--- a/Panda/Billable Manday pryn 62.xlsx
+++ b/Panda/Billable Manday pryn 62.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\OneDrive - The foundation for Thailand Productivity Institute (Branch 1)\FTPI\ปี62\Individual plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6CFAA7D423977D2DF76F317E05EB40384907A519" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{142B70BF-140E-44BB-AD84-7836ED088709}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Billable Manday pryn 62" sheetId="1" r:id="rId1"/>
@@ -25,30 +19,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="60">
-  <si>
-    <t>Emp  ID</t>
-  </si>
-  <si>
-    <t>Employee  Name</t>
-  </si>
-  <si>
-    <t>Account  Date</t>
-  </si>
-  <si>
-    <t>Project  ID (?)</t>
-  </si>
-  <si>
-    <t>Project  Name</t>
-  </si>
-  <si>
-    <t>Sub Project  ID</t>
-  </si>
-  <si>
-    <t>Report  Code</t>
-  </si>
-  <si>
-    <t>Internal  Quantity</t>
-  </si>
   <si>
     <t>ปริญญ์ เสรีพงศ์</t>
   </si>
@@ -205,16 +175,40 @@
   <si>
     <t>MBA</t>
   </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>SubProjectID</t>
+  </si>
+  <si>
+    <t>ReportCode</t>
+  </si>
+  <si>
+    <t>workhrs</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -222,7 +216,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -231,7 +225,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -240,7 +234,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -249,7 +243,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -258,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -266,7 +260,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -274,7 +268,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -282,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -290,7 +284,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -299,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -308,7 +302,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -316,7 +310,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -325,7 +319,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -333,7 +327,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -342,7 +336,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -351,7 +345,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -359,7 +353,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -810,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,26 +837,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,23 +872,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,55 +1047,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>43374</v>
@@ -1144,24 +1104,24 @@
         <v>7500198000</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>43375</v>
@@ -1170,24 +1130,24 @@
         <v>7500198000</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>43376</v>
@@ -1196,24 +1156,24 @@
         <v>7500198000</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>43377</v>
@@ -1222,24 +1182,24 @@
         <v>7500198000</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>43378</v>
@@ -1248,50 +1208,50 @@
         <v>7500198000</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>43381</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>43382</v>
@@ -1300,24 +1260,24 @@
         <v>7310198000</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>43383</v>
@@ -1326,24 +1286,24 @@
         <v>7310198000</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>43384</v>
@@ -1352,24 +1312,24 @@
         <v>7310198000</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>43385</v>
@@ -1378,24 +1338,24 @@
         <v>7310198000</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>43389</v>
@@ -1404,128 +1364,128 @@
         <v>7310198000</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>43390</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>43391</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>43392</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>43398</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>43399</v>
@@ -1534,24 +1494,24 @@
         <v>7310198000</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>43402</v>
@@ -1560,24 +1520,24 @@
         <v>7310198000</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>43403</v>
@@ -1586,24 +1546,24 @@
         <v>7310198000</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>43404</v>
@@ -1612,24 +1572,24 @@
         <v>7310198000</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>43405</v>
@@ -1638,24 +1598,24 @@
         <v>7500198000</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>43406</v>
@@ -1664,76 +1624,76 @@
         <v>7500198000</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>43409</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>43410</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>43410</v>
@@ -1742,24 +1702,24 @@
         <v>7500198000</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>43411</v>
@@ -1768,50 +1728,50 @@
         <v>7500198000</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>43412</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>43413</v>
@@ -1820,24 +1780,24 @@
         <v>7500198000</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>43416</v>
@@ -1846,206 +1806,206 @@
         <v>7500198000</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <v>43417</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>43417</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>43418</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>239</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
         <v>43418</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>239</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>43419</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>43420</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>239</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>43420</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>43423</v>
@@ -2054,102 +2014,102 @@
         <v>7500198000</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>239</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>43424</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>239</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>43425</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>43425</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>239</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>43426</v>
@@ -2158,24 +2118,24 @@
         <v>4609197005</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>239</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>43427</v>
@@ -2184,102 +2144,102 @@
         <v>7500198000</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>239</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>43430</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>43430</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>43430</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>43430</v>
@@ -2288,76 +2248,76 @@
         <v>7500198000</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>43431</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>239</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>43431</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>43432</v>
@@ -2366,76 +2326,76 @@
         <v>7500198000</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>43433</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H50">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>43433</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>43434</v>
@@ -2444,50 +2404,50 @@
         <v>7500198000</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
         <v>43434</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>239</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>43440</v>
@@ -2496,24 +2456,24 @@
         <v>7500198000</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
         <v>43441</v>
@@ -2522,24 +2482,24 @@
         <v>7500198000</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>43445</v>
@@ -2548,24 +2508,24 @@
         <v>7500198000</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
         <v>43446</v>
@@ -2574,128 +2534,128 @@
         <v>7500198000</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>239</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
         <v>43446</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>43447</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
         <v>43448</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
         <v>43448</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <v>43451</v>
@@ -2704,24 +2664,24 @@
         <v>7500198000</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>43452</v>
@@ -2730,76 +2690,76 @@
         <v>7500198000</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
         <v>43452</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
         <v>43453</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H65">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1">
         <v>43454</v>
@@ -2808,24 +2768,24 @@
         <v>7500198000</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
         <v>43455</v>
@@ -2834,24 +2794,24 @@
         <v>7500198000</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <v>43458</v>
@@ -2860,50 +2820,50 @@
         <v>7500198000</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
         <v>43459</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
         <v>14</v>
       </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
       <c r="H69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1">
         <v>43460</v>
@@ -2912,50 +2872,50 @@
         <v>7500198000</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
         <v>43460</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>239</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
         <v>43461</v>
@@ -2964,24 +2924,24 @@
         <v>7500198000</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>239</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
         <v>43468</v>
@@ -2990,24 +2950,24 @@
         <v>7500198000</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
         <v>43469</v>
@@ -3016,24 +2976,24 @@
         <v>7500198000</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>239</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
         <v>43472</v>
@@ -3042,24 +3002,24 @@
         <v>7500198000</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <v>43473</v>
@@ -3068,50 +3028,50 @@
         <v>7500198000</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
         <v>43473</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
         <v>43474</v>
@@ -3120,24 +3080,24 @@
         <v>7500198000</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>43475</v>
@@ -3146,24 +3106,24 @@
         <v>7500198000</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
         <v>43476</v>
@@ -3172,24 +3132,24 @@
         <v>7500198000</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
         <v>43479</v>
@@ -3198,24 +3158,24 @@
         <v>7500198000</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
         <v>43480</v>
@@ -3224,24 +3184,24 @@
         <v>7500198000</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1">
         <v>43481</v>
@@ -3250,24 +3210,24 @@
         <v>7500198000</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H83">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>239</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1">
         <v>43482</v>
@@ -3276,24 +3236,24 @@
         <v>7500198000</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
         <v>43483</v>
@@ -3302,50 +3262,50 @@
         <v>7500198000</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>239</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
         <v>43483</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
         <v>43486</v>
@@ -3354,24 +3314,24 @@
         <v>7500198000</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>239</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
         <v>43487</v>
@@ -3380,24 +3340,24 @@
         <v>7500198000</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>239</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>43488</v>
@@ -3406,24 +3366,24 @@
         <v>7500198000</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
         <v>43489</v>
@@ -3432,50 +3392,50 @@
         <v>7500198000</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
         <v>43489</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>239</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
         <v>43490</v>
@@ -3484,24 +3444,24 @@
         <v>7500198000</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>239</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
         <v>43493</v>
@@ -3510,24 +3470,24 @@
         <v>7310198000</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H93">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
         <v>43494</v>
@@ -3536,24 +3496,24 @@
         <v>7500198000</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
         <v>43495</v>
@@ -3562,24 +3522,24 @@
         <v>7500198000</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>239</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
         <v>43496</v>
@@ -3588,24 +3548,24 @@
         <v>7500198000</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H96">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>239</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1">
         <v>43497</v>
@@ -3614,24 +3574,24 @@
         <v>7500198000</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H97">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>239</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
         <v>43500</v>
@@ -3640,24 +3600,24 @@
         <v>7500198000</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H98">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>239</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1">
         <v>43501</v>
@@ -3666,24 +3626,24 @@
         <v>7500198000</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H99">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>239</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1">
         <v>43502</v>
@@ -3692,24 +3652,24 @@
         <v>7500198000</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1">
         <v>43503</v>
@@ -3718,24 +3678,24 @@
         <v>7500198000</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1">
         <v>43504</v>
@@ -3744,50 +3704,50 @@
         <v>7500198000</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H102">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
         <v>43504</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H103">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
         <v>43507</v>
@@ -3796,24 +3756,24 @@
         <v>7500198000</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>239</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
         <v>43508</v>
@@ -3822,24 +3782,24 @@
         <v>7500198000</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
         <v>43509</v>
@@ -3848,24 +3808,24 @@
         <v>7500198000</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>239</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
         <v>43510</v>
@@ -3874,24 +3834,24 @@
         <v>7500198000</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>239</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
         <v>43511</v>
@@ -3900,24 +3860,24 @@
         <v>7500198000</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H108">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>239</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1">
         <v>43514</v>
@@ -3926,24 +3886,24 @@
         <v>7500198000</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H109">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>239</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C110" s="1">
         <v>43516</v>
@@ -3952,76 +3912,76 @@
         <v>7500198000</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H110">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>239</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1">
         <v>43517</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H111">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>239</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
         <v>43518</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H112">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>239</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1">
         <v>43518</v>
@@ -4030,24 +3990,24 @@
         <v>7500198000</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H113">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
         <v>43521</v>
@@ -4056,76 +4016,76 @@
         <v>7500198000</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H114">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>239</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
         <v>43522</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H115">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
         <v>43523</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H116">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>239</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1">
         <v>43524</v>
@@ -4134,76 +4094,76 @@
         <v>7500198000</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H117">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>239</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1">
         <v>43525</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
         <v>14</v>
       </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
       <c r="H118">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
         <v>43528</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H119">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C120" s="1">
         <v>43529</v>
@@ -4212,24 +4172,24 @@
         <v>7500198000</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H120">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1">
         <v>43530</v>
@@ -4238,76 +4198,76 @@
         <v>7500198000</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H121">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1">
         <v>43531</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1">
         <v>43531</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G123" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H123">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1">
         <v>43532</v>
@@ -4316,128 +4276,128 @@
         <v>7500198000</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H124">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>239</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
         <v>43535</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>239</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1">
         <v>43535</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
         <v>14</v>
       </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
       <c r="H126">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C127" s="1">
         <v>43536</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
         <v>14</v>
       </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
       <c r="H127">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
         <v>43537</v>
       </c>
       <c r="D128" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
         <v>14</v>
       </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
       <c r="H128">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>239</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C129" s="1">
         <v>43538</v>
@@ -4446,24 +4406,24 @@
         <v>7500198000</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H129">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
         <v>43539</v>
@@ -4472,24 +4432,24 @@
         <v>7500198000</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H130">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>239</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1">
         <v>43542</v>
@@ -4498,50 +4458,50 @@
         <v>7500198000</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>239</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C132" s="1">
         <v>43542</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G132" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H132">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C133" s="1">
         <v>43543</v>
@@ -4550,24 +4510,24 @@
         <v>7500198000</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H133">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C134" s="1">
         <v>43544</v>
@@ -4576,128 +4536,128 @@
         <v>7500198000</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H134">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C135" s="1">
         <v>43545</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C136" s="1">
         <v>43545</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>239</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C137" s="1">
         <v>43545</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G137" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H137">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>239</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C138" s="1">
         <v>43546</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H138">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>239</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C139" s="1">
         <v>43546</v>
@@ -4706,24 +4666,24 @@
         <v>7500198000</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H139">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C140" s="1">
         <v>43549</v>
@@ -4732,24 +4692,24 @@
         <v>7500198000</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H140">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1">
         <v>43550</v>
@@ -4758,24 +4718,24 @@
         <v>7500198000</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H141">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>239</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1">
         <v>43551</v>
@@ -4784,154 +4744,154 @@
         <v>7500198000</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H142">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>239</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C143" s="1">
         <v>43552</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G143" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H143">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>239</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1">
         <v>43553</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>239</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C145" s="1">
         <v>43556</v>
       </c>
       <c r="D145" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G145" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H145">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C146" s="1">
         <v>43557</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G146" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H146">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>239</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C147" s="1">
         <v>43558</v>
       </c>
       <c r="D147" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H147">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>239</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C148" s="1">
         <v>43559</v>
@@ -4940,24 +4900,24 @@
         <v>7500198000</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H148">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>239</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C149" s="1">
         <v>43560</v>
@@ -4966,128 +4926,128 @@
         <v>7500198000</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H149">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C150" s="1">
         <v>43564</v>
       </c>
       <c r="D150" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H150">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C151" s="1">
         <v>43565</v>
       </c>
       <c r="D151" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" t="s">
         <v>14</v>
       </c>
-      <c r="G151" t="s">
-        <v>22</v>
-      </c>
       <c r="H151">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>239</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1">
         <v>43566</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G152" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H152">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>239</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C153" s="1">
         <v>43566</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>239</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C154" s="1">
         <v>43567</v>
@@ -5096,24 +5056,24 @@
         <v>7500198000</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H154">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>239</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C155" s="1">
         <v>43573</v>
@@ -5122,24 +5082,24 @@
         <v>7500198000</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H155">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C156" s="1">
         <v>43577</v>
@@ -5148,128 +5108,128 @@
         <v>7500198000</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H156">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>239</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C157" s="1">
         <v>43578</v>
       </c>
       <c r="D157" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H157">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>239</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C158" s="1">
         <v>43578</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>239</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C159" s="1">
         <v>43579</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G159" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H159">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>239</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C160" s="1">
         <v>43580</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H160">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>239</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C161" s="1">
         <v>43581</v>
@@ -5278,24 +5238,24 @@
         <v>7500198000</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H161">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>239</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C162" s="1">
         <v>43584</v>
@@ -5304,24 +5264,24 @@
         <v>7500198000</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H162">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C163" s="1">
         <v>43587</v>
@@ -5330,24 +5290,24 @@
         <v>7500198000</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H163">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>239</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C164" s="1">
         <v>43588</v>
@@ -5356,154 +5316,154 @@
         <v>7500198000</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H164">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C165" s="1">
         <v>43592</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G165" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H165">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C166" s="1">
         <v>43592</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>239</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C167" s="1">
         <v>43593</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G167" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H167">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>239</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C168" s="1">
         <v>43594</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H168">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>239</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C169" s="1">
         <v>43595</v>
       </c>
       <c r="D169" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G169" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H169">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>239</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C170" s="1">
         <v>43595</v>
@@ -5512,24 +5472,24 @@
         <v>7500198000</v>
       </c>
       <c r="E170" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>239</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C171" s="1">
         <v>43598</v>
@@ -5538,50 +5498,50 @@
         <v>7500198000</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G171" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H171">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>239</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C172" s="1">
         <v>43599</v>
       </c>
       <c r="D172" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G172" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C173" s="1">
         <v>43599</v>
@@ -5590,310 +5550,310 @@
         <v>7500198000</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H173">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>239</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C174" s="1">
         <v>43599</v>
       </c>
       <c r="D174" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>239</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C175" s="1">
         <v>43600</v>
       </c>
       <c r="D175" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>239</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C176" s="1">
         <v>43600</v>
       </c>
       <c r="D176" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>239</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1">
         <v>43600</v>
       </c>
       <c r="D177" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>239</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1">
         <v>43601</v>
       </c>
       <c r="D178" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H178">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C179" s="1">
         <v>43602</v>
       </c>
       <c r="D179" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H179">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>239</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C180" s="1">
         <v>43606</v>
       </c>
       <c r="D180" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G180" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>239</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C181" s="1">
         <v>43606</v>
       </c>
       <c r="D181" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H181">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>239</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C182" s="1">
         <v>43607</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H182">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>239</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C183" s="1">
         <v>43608</v>
       </c>
       <c r="D183" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H183">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>239</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C184" s="1">
         <v>43609</v>
       </c>
       <c r="D184" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H184">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>239</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C185" s="1">
         <v>43612</v>
@@ -5902,50 +5862,50 @@
         <v>7500198000</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H185">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>239</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C186" s="1">
         <v>43613</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E186" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H186">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>239</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C187" s="1">
         <v>43613</v>
@@ -5954,24 +5914,24 @@
         <v>7500198000</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H187">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>239</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C188" s="1">
         <v>43614</v>
@@ -5980,206 +5940,206 @@
         <v>7500198000</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H188">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>239</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C189" s="1">
         <v>43614</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H189">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>239</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C190" s="1">
         <v>43614</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C191" s="1">
         <v>43615</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>239</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C192" s="1">
         <v>43615</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>239</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C193" s="1">
         <v>43615</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G193" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H193">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>239</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C194" s="1">
         <v>43616</v>
       </c>
       <c r="D194" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G194" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H194">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>239</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C195" s="1">
         <v>43620</v>
       </c>
       <c r="D195" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H195">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>239</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C196" s="1">
         <v>43620</v>
@@ -6188,24 +6148,24 @@
         <v>7500198000</v>
       </c>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H196">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>239</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C197" s="1">
         <v>43621</v>
@@ -6214,50 +6174,50 @@
         <v>7500198000</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H197">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>239</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C198" s="1">
         <v>43621</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E198" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H198">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>239</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C199" s="1">
         <v>43622</v>
@@ -6266,24 +6226,24 @@
         <v>7500198000</v>
       </c>
       <c r="E199" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H199">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C200" s="1">
         <v>43623</v>
@@ -6292,50 +6252,50 @@
         <v>7500198000</v>
       </c>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H200">
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>239</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C201" s="1">
         <v>43626</v>
       </c>
       <c r="D201" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H201">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>239</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C202" s="1">
         <v>43627</v>
@@ -6344,24 +6304,24 @@
         <v>7500198000</v>
       </c>
       <c r="E202" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H202">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>239</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C203" s="1">
         <v>43628</v>
@@ -6370,24 +6330,24 @@
         <v>7500198000</v>
       </c>
       <c r="E203" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H203">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>239</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C204" s="1">
         <v>43629</v>
@@ -6396,24 +6356,24 @@
         <v>7500198000</v>
       </c>
       <c r="E204" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G204" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H204">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>239</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C205" s="1">
         <v>43630</v>
@@ -6422,24 +6382,24 @@
         <v>7500198000</v>
       </c>
       <c r="E205" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H205">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C206" s="1">
         <v>43633</v>
@@ -6448,24 +6408,24 @@
         <v>7500198000</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G206" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H206">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>239</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C207" s="1">
         <v>43634</v>
@@ -6474,76 +6434,76 @@
         <v>7500198000</v>
       </c>
       <c r="E207" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G207" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H207">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>239</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C208" s="1">
         <v>43634</v>
       </c>
       <c r="D208" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G208" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H208">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>239</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C209" s="1">
         <v>43635</v>
       </c>
       <c r="D209" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H209">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C210" s="1">
         <v>43636</v>
@@ -6552,24 +6512,24 @@
         <v>7500198000</v>
       </c>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H210">
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>239</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C211" s="1">
         <v>43637</v>
@@ -6578,24 +6538,24 @@
         <v>7500198000</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G211" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H211">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>239</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C212" s="1">
         <v>43640</v>
@@ -6604,50 +6564,50 @@
         <v>7500198000</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H212">
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C213" s="1">
         <v>43641</v>
       </c>
       <c r="D213" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H213">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C214" s="1">
         <v>43642</v>
@@ -6656,24 +6616,24 @@
         <v>7500198000</v>
       </c>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H214">
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C215" s="1">
         <v>43643</v>
@@ -6682,24 +6642,24 @@
         <v>7500198000</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H215">
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>239</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C216" s="1">
         <v>43644</v>
@@ -6708,50 +6668,50 @@
         <v>7500198000</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H216">
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>239</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C217" s="1">
         <v>43647</v>
       </c>
       <c r="D217" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G217" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H217">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>239</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C218" s="1">
         <v>43647</v>
@@ -6760,102 +6720,102 @@
         <v>7500198000</v>
       </c>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G218" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H218">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>239</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C219" s="1">
         <v>43648</v>
       </c>
       <c r="D219" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E219" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G219" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H219">
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>239</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C220" s="1">
         <v>43648</v>
       </c>
       <c r="D220" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G220" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>239</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C221" s="1">
         <v>43649</v>
       </c>
       <c r="D221" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G221" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H221">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C222" s="1">
         <v>43649</v>
@@ -6864,24 +6824,24 @@
         <v>7500198000</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H222">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C223" s="1">
         <v>43650</v>
@@ -6890,24 +6850,24 @@
         <v>7500198000</v>
       </c>
       <c r="E223" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G223" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H223">
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>239</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C224" s="1">
         <v>43651</v>
@@ -6916,24 +6876,24 @@
         <v>7500198000</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H224">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C225" s="1">
         <v>43654</v>
@@ -6942,76 +6902,76 @@
         <v>7500198000</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H225">
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>239</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C226" s="1">
         <v>43655</v>
       </c>
       <c r="D226" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E226" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F226" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G226" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H226">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C227" s="1">
         <v>43655</v>
       </c>
       <c r="D227" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G227" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H227">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C228" s="1">
         <v>43655</v>
@@ -7020,24 +6980,24 @@
         <v>7500198000</v>
       </c>
       <c r="E228" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H228">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>239</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C229" s="1">
         <v>43656</v>
@@ -7046,76 +7006,76 @@
         <v>7500198000</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G229" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H229">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C230" s="1">
         <v>43657</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E230" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H230">
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>239</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C231" s="1">
         <v>43658</v>
       </c>
       <c r="D231" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E231" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G231" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H231">
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>239</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C232" s="1">
         <v>43661</v>
@@ -7124,50 +7084,50 @@
         <v>7500198000</v>
       </c>
       <c r="E232" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G232" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H232">
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C233" s="1">
         <v>43664</v>
       </c>
       <c r="D233" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E233" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G233" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H233">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C234" s="1">
         <v>43665</v>
@@ -7176,24 +7136,24 @@
         <v>7500198000</v>
       </c>
       <c r="E234" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G234" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H234">
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C235" s="1">
         <v>43668</v>
@@ -7202,24 +7162,24 @@
         <v>1109197003</v>
       </c>
       <c r="E235" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C236" s="1">
         <v>43668</v>
@@ -7228,24 +7188,24 @@
         <v>1109197003</v>
       </c>
       <c r="E236" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F236" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H236">
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C237" s="1">
         <v>43669</v>
@@ -7254,24 +7214,24 @@
         <v>1109197003</v>
       </c>
       <c r="E237" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C238" s="1">
         <v>43669</v>
@@ -7280,24 +7240,24 @@
         <v>1109197003</v>
       </c>
       <c r="E238" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H238">
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C239" s="1">
         <v>43670</v>
@@ -7306,50 +7266,50 @@
         <v>1109197003</v>
       </c>
       <c r="E239" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F239" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G239" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H239">
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C240" s="1">
         <v>43671</v>
       </c>
       <c r="D240" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G240" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H240">
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C241" s="1">
         <v>43672</v>
@@ -7358,24 +7318,24 @@
         <v>7500198000</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G241" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H241">
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C242" s="1">
         <v>43676</v>
@@ -7384,24 +7344,24 @@
         <v>7500198000</v>
       </c>
       <c r="E242" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G242" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H242">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C243" s="1">
         <v>43677</v>
@@ -7410,24 +7370,24 @@
         <v>7500198000</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G243" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H243">
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C244" s="1">
         <v>43678</v>
@@ -7436,102 +7396,102 @@
         <v>7500198000</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G244" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H244">
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>239</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C245" s="1">
         <v>43678</v>
       </c>
       <c r="D245" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E245" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G245" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H245">
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>239</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C246" s="1">
         <v>43679</v>
       </c>
       <c r="D246" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G246" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H246">
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>239</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C247" s="1">
         <v>43679</v>
       </c>
       <c r="D247" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E247" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G247" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H247">
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>239</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C248" s="1">
         <v>43682</v>
@@ -7540,76 +7500,76 @@
         <v>7500198000</v>
       </c>
       <c r="E248" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G248" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H248">
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>239</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C249" s="1">
         <v>43683</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E249" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G249" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H249">
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>239</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C250" s="1">
         <v>43683</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E250" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F250" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G250" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C251" s="1">
         <v>43684</v>
@@ -7618,24 +7578,24 @@
         <v>7500198000</v>
       </c>
       <c r="E251" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H251">
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>239</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C252" s="1">
         <v>43685</v>
@@ -7644,24 +7604,24 @@
         <v>7500198000</v>
       </c>
       <c r="E252" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G252" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H252">
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>239</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C253" s="1">
         <v>43686</v>
@@ -7670,50 +7630,50 @@
         <v>7500198000</v>
       </c>
       <c r="E253" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G253" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H253">
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>239</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C254" s="1">
         <v>43686</v>
       </c>
       <c r="D254" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G254" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H254">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>239</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C255" s="1">
         <v>43690</v>
@@ -7722,24 +7682,24 @@
         <v>7500198000</v>
       </c>
       <c r="E255" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H255">
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>239</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C256" s="1">
         <v>43692</v>
@@ -7748,24 +7708,24 @@
         <v>7500198000</v>
       </c>
       <c r="E256" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F256" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G256" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H256">
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>239</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C257" s="1">
         <v>43693</v>
@@ -7774,24 +7734,24 @@
         <v>7500198000</v>
       </c>
       <c r="E257" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H257">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>239</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C258" s="1">
         <v>43696</v>
@@ -7800,102 +7760,102 @@
         <v>7500198000</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H258">
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>239</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C259" s="1">
         <v>43697</v>
       </c>
       <c r="D259" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E259" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G259" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H259">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C260" s="1">
         <v>43697</v>
       </c>
       <c r="D260" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E260" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F260" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G260" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H260">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C261" s="1">
         <v>43698</v>
       </c>
       <c r="D261" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E261" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G261" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H261">
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>239</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C262" s="1">
         <v>43699</v>
@@ -7904,24 +7864,24 @@
         <v>7500198000</v>
       </c>
       <c r="E262" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G262" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H262">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>239</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C263" s="1">
         <v>43700</v>
@@ -7930,24 +7890,24 @@
         <v>7500198000</v>
       </c>
       <c r="E263" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G263" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H263">
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>239</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C264" s="1">
         <v>43703</v>
@@ -7956,24 +7916,24 @@
         <v>7500198000</v>
       </c>
       <c r="E264" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G264" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H264">
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>239</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C265" s="1">
         <v>43704</v>
@@ -7982,180 +7942,180 @@
         <v>7500198000</v>
       </c>
       <c r="E265" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G265" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H265">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>239</v>
       </c>
       <c r="B266" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C266" s="1">
         <v>43705</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E266" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G266" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H266">
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>239</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C267" s="1">
         <v>43705</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E267" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G267" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H267">
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>239</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C268" s="1">
         <v>43705</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E268" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F268" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G268" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H268">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>239</v>
       </c>
       <c r="B269" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C269" s="1">
         <v>43706</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G269" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H269">
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>239</v>
       </c>
       <c r="B270" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C270" s="1">
         <v>43706</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E270" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G270" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H270">
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>239</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C271" s="1">
         <v>43707</v>
       </c>
       <c r="D271" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E271" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G271" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H271">
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>239</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C272" s="1">
         <v>43707</v>
@@ -8164,206 +8124,206 @@
         <v>7500198000</v>
       </c>
       <c r="E272" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F272" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G272" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H272">
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>239</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C273" s="1">
         <v>43709</v>
       </c>
       <c r="D273" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E273" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G273" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>239</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C274" s="1">
         <v>43709</v>
       </c>
       <c r="D274" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E274" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G274" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>239</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C275" s="1">
         <v>43709</v>
       </c>
       <c r="D275" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E275" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H275">
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>239</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C276" s="1">
         <v>43710</v>
       </c>
       <c r="D276" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F276" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G276" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>239</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C277" s="1">
         <v>43710</v>
       </c>
       <c r="D277" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E277" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G277" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H277">
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>239</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C278" s="1">
         <v>43714</v>
       </c>
       <c r="D278" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F278" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G278" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>239</v>
       </c>
       <c r="B279" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C279" s="1">
         <v>43714</v>
       </c>
       <c r="D279" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E279" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H279">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>239</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C280" s="1">
         <v>43717</v>
@@ -8372,24 +8332,24 @@
         <v>7500198000</v>
       </c>
       <c r="E280" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F280" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G280" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H280">
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>239</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C281" s="1">
         <v>43718</v>
@@ -8398,24 +8358,24 @@
         <v>7500198000</v>
       </c>
       <c r="E281" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F281" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G281" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H281">
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>239</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C282" s="1">
         <v>43719</v>
@@ -8424,24 +8384,24 @@
         <v>7500198000</v>
       </c>
       <c r="E282" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F282" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G282" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H282">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>239</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C283" s="1">
         <v>43720</v>
@@ -8450,24 +8410,24 @@
         <v>7500198000</v>
       </c>
       <c r="E283" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F283" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G283" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H283">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>239</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C284" s="1">
         <v>43721</v>
@@ -8476,76 +8436,76 @@
         <v>7500198000</v>
       </c>
       <c r="E284" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G284" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H284">
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>239</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C285" s="1">
         <v>43724</v>
       </c>
       <c r="D285" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E285" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F285" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G285" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H285">
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>239</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C286" s="1">
         <v>43724</v>
       </c>
       <c r="D286" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E286" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F286" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G286" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H286">
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>239</v>
       </c>
       <c r="B287" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C287" s="1">
         <v>43725</v>
@@ -8554,24 +8514,24 @@
         <v>7500198000</v>
       </c>
       <c r="E287" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F287" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G287" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H287">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>239</v>
       </c>
       <c r="B288" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C288" s="1">
         <v>43726</v>
@@ -8580,76 +8540,76 @@
         <v>7500198000</v>
       </c>
       <c r="E288" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F288" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G288" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H288">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>239</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C289" s="1">
         <v>43727</v>
       </c>
       <c r="D289" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E289" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F289" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G289" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H289">
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>239</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C290" s="1">
         <v>43727</v>
       </c>
       <c r="D290" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E290" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F290" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G290" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H290">
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>239</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C291" s="1">
         <v>43728</v>
@@ -8658,24 +8618,24 @@
         <v>7500198000</v>
       </c>
       <c r="E291" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F291" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H291">
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>239</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C292" s="1">
         <v>43731</v>
@@ -8684,24 +8644,24 @@
         <v>7500198000</v>
       </c>
       <c r="E292" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F292" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H292">
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>239</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C293" s="1">
         <v>43732</v>
@@ -8710,24 +8670,24 @@
         <v>7500198000</v>
       </c>
       <c r="E293" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F293" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G293" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H293">
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>239</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C294" s="1">
         <v>43733</v>
@@ -8736,76 +8696,76 @@
         <v>7500198000</v>
       </c>
       <c r="E294" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F294" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G294" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H294">
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>239</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C295" s="1">
         <v>43733</v>
       </c>
       <c r="D295" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E295" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F295" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G295" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H295">
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>239</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C296" s="1">
         <v>43734</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E296" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F296" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G296" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H296">
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>239</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C297" s="1">
         <v>43735</v>
@@ -8814,24 +8774,24 @@
         <v>7500198000</v>
       </c>
       <c r="E297" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F297" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G297" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H297">
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>239</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C298" s="1">
         <v>43738</v>
@@ -8840,100 +8800,100 @@
         <v>7500198000</v>
       </c>
       <c r="E298" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F298" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G298" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H298">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H298" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H298"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
